--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F6DB9-A43A-47BC-B987-CF06F1C9E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3F370-178B-420F-8DE5-6C13A6C3F749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">penguji </t>
+  </si>
+  <si>
+    <t>Kualifikasi</t>
   </si>
 </sst>
 </file>
@@ -698,13 +701,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6328125" style="8" customWidth="1"/>
@@ -714,7 +717,7 @@
     <col min="8" max="8" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="8"/>
-    <col min="11" max="11" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="31.08984375" style="13" customWidth="1"/>
     <col min="13" max="13" width="27.7265625" style="8" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="3"/>
@@ -937,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>25</v>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263DE94-CB23-4BB6-8493-16E97B1147F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798ACE15-B881-4413-B428-4A6F7FBCED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -87,21 +87,6 @@
     <t>profil_siswa.html</t>
   </si>
   <si>
-    <t>Muhammad Ibnu Mundzir</t>
-  </si>
-  <si>
-    <t>mundzir011@gmail.com</t>
-  </si>
-  <si>
-    <t>Mamuju, 06 Maret 2004</t>
-  </si>
-  <si>
-    <t>Mamuju, Sulawesi Barat</t>
-  </si>
-  <si>
-    <t>Coklat</t>
-  </si>
-  <si>
     <t>Panding</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>Belum tersedia (Status Pending)</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RD_rQQYA5I5qHuOhkKr1wHlqR-PFQVjI/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>Khairun Anwar</t>
   </si>
   <si>
@@ -195,9 +177,6 @@
     <t>fotoUrl</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/d/15ZweUZ3vY5tauL9BmFgx1z72nh_sdkjW</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -244,9 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">penguji </t>
-  </si>
-  <si>
-    <t>Kualifikasi</t>
   </si>
   <si>
     <t>ayunidinda014@gmail.com</t>
@@ -353,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -375,12 +351,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -392,9 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -733,12 +700,12 @@
     <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="8"/>
     <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="31.08984375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="31.08984375" style="11" customWidth="1"/>
     <col min="13" max="13" width="27.7265625" style="8" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,24 +740,24 @@
         <v>15</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -802,15 +769,15 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>A3&amp;B3</f>
@@ -826,15 +793,15 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D7" si="0">A4&amp;B4</f>
@@ -850,15 +817,15 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -874,15 +841,15 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -898,15 +865,15 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -923,91 +890,91 @@
       <c r="M7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2022</v>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2024</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>83115076643</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="L8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8">
-        <v>85715232441</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2022</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="M8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>0</v>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>83115076643</v>
-      </c>
-      <c r="I9" s="11">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <v>85814698694</v>
+      </c>
+      <c r="I9" s="8">
         <v>2024</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>24</v>
+      <c r="K9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="8">
         <v>2024</v>
@@ -1016,19 +983,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="8">
-        <v>85814698694</v>
+        <v>81225866794</v>
       </c>
       <c r="I10" s="8">
         <v>2024</v>
@@ -1036,60 +1003,60 @@
       <c r="J10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>24</v>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="H11" s="8">
+        <v>83857670720</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2025</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="K11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="8">
-        <v>81225866794</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2024</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="B12" s="8">
         <v>2025</v>
@@ -1098,162 +1065,162 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" s="8">
-        <v>83857670720</v>
+        <v>83160439639</v>
       </c>
       <c r="I12" s="8">
         <v>2025</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="B13" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="8">
+        <v>83147387373</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="8">
-        <v>83160439639</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="B14" s="8">
         <v>2025</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2024</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="8">
+        <v>83842685953</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2025</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8">
-        <v>83147387373</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="B15" s="8">
         <v>2024</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2025</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8">
+        <v>82299054116</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="8">
-        <v>83842685953</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2025</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8">
         <v>2024</v>
@@ -1262,93 +1229,53 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H16" s="8">
-        <v>82299054116</v>
+        <v>81574795349</v>
       </c>
       <c r="I16" s="8">
         <v>2024</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="8">
-        <v>81574795349</v>
-      </c>
-      <c r="I17" s="8">
-        <v>2024</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1" xr:uid="{729E1C9C-11B0-4520-9800-1C0DEA8C25C7}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{FFCD4881-C661-4AF9-B42C-9EEFEE5BBBE4}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{03D1EF6F-944B-4C4C-B91C-9429D55750E8}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
-    <hyperlink ref="C4:C7" r:id="rId6" display="https://uktpagarnusa.my.id/penilaian/fisik/penilaian" xr:uid="{0A27367E-0191-4AF5-A4EA-FE51F92ACC0C}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{C275E65F-AB3A-4450-99BB-EF160FB612AA}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{08158DAE-737C-47F6-B73C-8B50EB180AFD}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{76DFDE4A-0DA0-4DBB-819B-458B13FBEFA8}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{1A50741B-5940-4317-9C09-CED171112ABB}"/>
-    <hyperlink ref="A8" r:id="rId11" xr:uid="{517436D5-4D87-467B-A27B-14108DC85BBC}"/>
-    <hyperlink ref="A9" r:id="rId12" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
+    <hyperlink ref="C4:C7" r:id="rId3" display="https://uktpagarnusa.my.id/penilaian/fisik/penilaian" xr:uid="{0A27367E-0191-4AF5-A4EA-FE51F92ACC0C}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{C275E65F-AB3A-4450-99BB-EF160FB612AA}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{08158DAE-737C-47F6-B73C-8B50EB180AFD}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{76DFDE4A-0DA0-4DBB-819B-458B13FBEFA8}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{1A50741B-5940-4317-9C09-CED171112ABB}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDFB84-97E8-4B76-A1CC-2EBDE9997CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38A915-B905-40D2-B81C-A4CEA623BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -256,6 +256,39 @@
   </si>
   <si>
     <t>Sulawesi tangah kabupaten poso</t>
+  </si>
+  <si>
+    <t>Fadli Al Masani</t>
+  </si>
+  <si>
+    <t>almatsanial@gmail.com</t>
+  </si>
+  <si>
+    <t>Brebes, 27 juli 2008</t>
+  </si>
+  <si>
+    <t>Brebes Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Agung Prayuda</t>
+  </si>
+  <si>
+    <t>prayudagung01@gmail.com</t>
+  </si>
+  <si>
+    <t>Cirebon,02 Januari 2005</t>
+  </si>
+  <si>
+    <t>Cirebon,Jawa Barat</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penilaian/menu_penilaian</t>
+  </si>
+  <si>
+    <t>menu penilaian</t>
   </si>
 </sst>
 </file>
@@ -692,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -778,43 +811,33 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f>A3&amp;B3</f>
-        <v>penguji fisik</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f t="shared" ref="D4:D7" si="0">A4&amp;B4</f>
-        <v>penguji hafalan</v>
+        <f>A4&amp;B4</f>
+        <v>penguji fisik</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -831,14 +854,14 @@
         <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>penguji sejarah</v>
+        <f t="shared" ref="D5:D8" si="0">A5&amp;B5</f>
+        <v>penguji hafalan</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -855,14 +878,14 @@
         <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>penguji senaman</v>
+        <v>penguji sejarah</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -879,14 +902,14 @@
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>penguji mental</v>
+        <v>penguji senaman</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -900,75 +923,58 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>penguji mental</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>83115076643</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2024</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8">
-        <v>85814698694</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="D9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9">
+        <v>83115076643</v>
+      </c>
+      <c r="I9" s="9">
         <v>2024</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -983,7 +989,7 @@
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>2024</v>
@@ -992,19 +998,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8">
-        <v>81225866794</v>
+        <v>85814698694</v>
       </c>
       <c r="I10" s="8">
         <v>2024</v>
@@ -1023,35 +1029,35 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
+      <c r="A11" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" s="8">
-        <v>83857670720</v>
+        <v>81225866794</v>
       </c>
       <c r="I11" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>17</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8">
         <v>2025</v>
@@ -1074,19 +1080,19 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H12" s="8">
-        <v>83160439639</v>
+        <v>83857670720</v>
       </c>
       <c r="I12" s="8">
         <v>2025</v>
@@ -1106,34 +1112,34 @@
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H13" s="8">
-        <v>83147387373</v>
+        <v>83160439639</v>
       </c>
       <c r="I13" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>17</v>
@@ -1147,34 +1153,34 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8">
-        <v>83842685953</v>
+        <v>83147387373</v>
       </c>
       <c r="I14" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>17</v>
@@ -1188,34 +1194,34 @@
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" s="8">
-        <v>82299054116</v>
+        <v>83842685953</v>
       </c>
       <c r="I15" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>17</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8">
         <v>2024</v>
@@ -1238,19 +1244,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H16" s="8">
-        <v>81574795349</v>
+        <v>82299054116</v>
       </c>
       <c r="I16" s="8">
         <v>2024</v>
@@ -1270,34 +1276,34 @@
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8">
-        <v>85810936860</v>
+        <v>81574795349</v>
       </c>
       <c r="I17" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>17</v>
@@ -1309,22 +1315,143 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8">
+        <v>85810936860</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2025</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="8">
+        <v>83825945343</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2025</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="8">
+        <v>87861768173</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
-    <hyperlink ref="C4:C7" r:id="rId3" display="https://uktpagarnusa.my.id/penilaian/fisik/penilaian" xr:uid="{0A27367E-0191-4AF5-A4EA-FE51F92ACC0C}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C275E65F-AB3A-4450-99BB-EF160FB612AA}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{08158DAE-737C-47F6-B73C-8B50EB180AFD}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{76DFDE4A-0DA0-4DBB-819B-458B13FBEFA8}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{1A50741B-5940-4317-9C09-CED171112ABB}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
+    <hyperlink ref="C5:C8" r:id="rId3" display="https://uktpagarnusa.my.id/penilaian/fisik/penilaian" xr:uid="{0A27367E-0191-4AF5-A4EA-FE51F92ACC0C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C275E65F-AB3A-4450-99BB-EF160FB612AA}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{08158DAE-737C-47F6-B73C-8B50EB180AFD}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{76DFDE4A-0DA0-4DBB-819B-458B13FBEFA8}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{1A50741B-5940-4317-9C09-CED171112ABB}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{6D0A836C-80B7-4B29-BF4A-69B945E572E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DB612-31B5-4E47-BE32-DFB05A67B4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A4A67-D977-426B-A9A4-1C96F86B6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -295,6 +295,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;0&quot;#"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -407,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,7 +735,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +747,7 @@
     <col min="5" max="5" width="28.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="8"/>
     <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
@@ -824,6 +833,7 @@
       <c r="D3" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -968,7 +978,7 @@
       <c r="G9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="14">
         <v>83115076643</v>
       </c>
       <c r="I9" s="9">
@@ -1009,7 +1019,7 @@
       <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="15">
         <v>85814698694</v>
       </c>
       <c r="I10" s="8">
@@ -1050,7 +1060,7 @@
       <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="15">
         <v>81225866794</v>
       </c>
       <c r="I11" s="8">
@@ -1091,7 +1101,7 @@
       <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="15">
         <v>83857670720</v>
       </c>
       <c r="I12" s="8">
@@ -1132,7 +1142,7 @@
       <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="15">
         <v>83160439639</v>
       </c>
       <c r="I13" s="8">
@@ -1173,7 +1183,7 @@
       <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="15">
         <v>83147387373</v>
       </c>
       <c r="I14" s="8">
@@ -1214,7 +1224,7 @@
       <c r="G15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="15">
         <v>83842685953</v>
       </c>
       <c r="I15" s="8">
@@ -1255,7 +1265,7 @@
       <c r="G16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="15">
         <v>82299054116</v>
       </c>
       <c r="I16" s="8">
@@ -1296,7 +1306,7 @@
       <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="15">
         <v>81574795349</v>
       </c>
       <c r="I17" s="8">
@@ -1337,7 +1347,7 @@
       <c r="G18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="15">
         <v>85810936860</v>
       </c>
       <c r="I18" s="8">
@@ -1378,7 +1388,7 @@
       <c r="G19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="15">
         <v>83825945343</v>
       </c>
       <c r="I19" s="8">
@@ -1419,7 +1429,7 @@
       <c r="G20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="15">
         <v>87861768173</v>
       </c>
       <c r="I20" s="8">

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C11433B-A4EF-4AE9-8CFD-64B9E5E0C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00229E79-5BDE-489D-9E73-EDE59E7C471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>Admin Humas</t>
+  </si>
+  <si>
+    <t>Citra hayatunnufus</t>
+  </si>
+  <si>
+    <t>citrahayatunnufus@gmail.com</t>
+  </si>
+  <si>
+    <t>Karawang 04-08-2007</t>
+  </si>
+  <si>
+    <t>kab. Karawang pakis jaya</t>
   </si>
 </sst>
 </file>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1471,6 +1483,47 @@
         <v>47</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="15">
+        <v>85891103825</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00229E79-5BDE-489D-9E73-EDE59E7C471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FE0D6B-0972-4824-ADB5-7430E4D94840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>kab. Karawang pakis jaya</t>
+  </si>
+  <si>
+    <t>Muhamad maulana naufal widodo</t>
+  </si>
+  <si>
+    <t>maulananaufalwidodo@gmail.com</t>
+  </si>
+  <si>
+    <t>Surabaya, 20 September 2005</t>
+  </si>
+  <si>
+    <t>tangerang, Banten</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -891,7 +903,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f t="shared" ref="D5:D9" si="0">A5&amp;B5</f>
+        <f t="shared" ref="D5:D8" si="0">A5&amp;B5</f>
         <v>penguji hafalan</v>
       </c>
       <c r="E5" s="4"/>
@@ -1521,6 +1533,47 @@
         <v>19</v>
       </c>
       <c r="M22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="15">
+        <v>89612950163</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>47</v>
       </c>
     </row>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FE0D6B-0972-4824-ADB5-7430E4D94840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3160A3-0FAD-4A88-902E-C88DB3AB3543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>tangerang, Banten</t>
+  </si>
+  <si>
+    <t>Kualifikasi</t>
   </si>
 </sst>
 </file>
@@ -767,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +786,7 @@
     <col min="8" max="8" width="17.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="8"/>
-    <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.08984375" style="11" customWidth="1"/>
     <col min="13" max="13" width="27.7265625" style="8" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="3"/>
@@ -1035,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>19</v>
@@ -1117,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>19</v>
@@ -1199,7 +1202,7 @@
         <v>31</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>19</v>
@@ -1240,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>19</v>
@@ -1363,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>19</v>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3160A3-0FAD-4A88-902E-C88DB3AB3543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902E5AB-159E-4C7E-A027-F6D675513C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -87,9 +87,6 @@
     <t>profil_siswa.html</t>
   </si>
   <si>
-    <t>Panding</t>
-  </si>
-  <si>
     <t>sertifikatUrl</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Admin Humas</t>
   </si>
   <si>
-    <t>Citra hayatunnufus</t>
-  </si>
-  <si>
     <t>citrahayatunnufus@gmail.com</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>kab. Karawang pakis jaya</t>
   </si>
   <si>
-    <t>Muhamad maulana naufal widodo</t>
-  </si>
-  <si>
     <t>maulananaufalwidodo@gmail.com</t>
   </si>
   <si>
@@ -325,6 +316,24 @@
   </si>
   <si>
     <t>Kualifikasi</t>
+  </si>
+  <si>
+    <t>Nurul Hidayah Harahap</t>
+  </si>
+  <si>
+    <t>nh8634951@gmail.com</t>
+  </si>
+  <si>
+    <t>Sabungan 24 September 2004</t>
+  </si>
+  <si>
+    <t>Labuhanbatu Selatan Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Citra Hayatunnufus</t>
+  </si>
+  <si>
+    <t>Muhamad Maulana Naufal Widodo</t>
   </si>
 </sst>
 </file>
@@ -768,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +788,7 @@
     <col min="1" max="1" width="33.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.36328125" style="8" bestFit="1" customWidth="1"/>
@@ -827,24 +836,24 @@
         <v>15</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -858,28 +867,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>A4&amp;B4</f>
@@ -897,13 +906,13 @@
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D8" si="0">A5&amp;B5</f>
@@ -921,13 +930,13 @@
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -945,13 +954,13 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -970,13 +979,13 @@
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -994,16 +1003,16 @@
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1038,18 +1047,18 @@
         <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8">
         <v>2024</v>
@@ -1058,16 +1067,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H11" s="15">
         <v>85814698694</v>
@@ -1079,18 +1088,18 @@
         <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8">
         <v>2024</v>
@@ -1099,16 +1108,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H12" s="15">
         <v>81225866794</v>
@@ -1120,18 +1129,18 @@
         <v>4</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8">
         <v>2025</v>
@@ -1140,16 +1149,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H13" s="15">
         <v>83857670720</v>
@@ -1158,21 +1167,21 @@
         <v>2025</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>2025</v>
@@ -1181,16 +1190,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H14" s="15">
         <v>83160439639</v>
@@ -1199,21 +1208,21 @@
         <v>2025</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
         <v>2024</v>
@@ -1222,16 +1231,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H15" s="15">
         <v>83147387373</v>
@@ -1243,18 +1252,18 @@
         <v>4</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8">
         <v>2025</v>
@@ -1263,16 +1272,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="H16" s="15">
         <v>83842685953</v>
@@ -1281,21 +1290,21 @@
         <v>2025</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8">
         <v>2024</v>
@@ -1304,16 +1313,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="15">
         <v>82299054116</v>
@@ -1325,18 +1334,18 @@
         <v>4</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8">
         <v>2024</v>
@@ -1345,16 +1354,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="H18" s="15">
         <v>81574795349</v>
@@ -1366,18 +1375,18 @@
         <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8">
         <v>2025</v>
@@ -1386,16 +1395,16 @@
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="15">
         <v>85810936860</v>
@@ -1404,21 +1413,21 @@
         <v>2025</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="8">
         <v>2025</v>
@@ -1427,16 +1436,16 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="15">
         <v>83825945343</v>
@@ -1445,21 +1454,21 @@
         <v>2025</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="8">
         <v>2024</v>
@@ -1468,16 +1477,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="15">
         <v>87861768173</v>
@@ -1489,18 +1498,18 @@
         <v>4</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8">
         <v>2024</v>
@@ -1509,16 +1518,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="H22" s="15">
         <v>85891103825</v>
@@ -1530,18 +1539,18 @@
         <v>4</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="8">
         <v>2024</v>
@@ -1550,16 +1559,16 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="H23" s="15">
         <v>89612950163</v>
@@ -1571,13 +1580,54 @@
         <v>4</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="15">
+        <v>83138509371</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\PRy UNUSIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A4A63-EA43-4EDE-983A-5435E9587865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89048594-A670-4B2E-881E-6932B01E075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>bendahara.html</t>
   </si>
   <si>
-    <t>https://uktpagarnusa.my.id/bendahara_rayon.html</t>
+    <t>bendahara_rayon.html</t>
   </si>
   <si>
     <t>iuran</t>
@@ -584,7 +584,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -890,7 +890,7 @@
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{BE24C19D-4AD4-4533-BB29-1AC30668F189}"/>
     <hyperlink ref="C12" r:id="rId2" display="https://uktpagarnusa.my.id/bendahara.html" xr:uid="{DA046E19-3CEF-41DF-A4E9-35C87398D470}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{B916DD9C-8415-4D42-86B8-F646377734DC}"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://uktpagarnusa.my.id/bendahara_rayon.html" xr:uid="{B916DD9C-8415-4D42-86B8-F646377734DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\PRy UNUSIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89048594-A670-4B2E-881E-6932B01E075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C132CF2-691D-4FC5-804D-83D8DA51440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>iuran</t>
+  </si>
+  <si>
+    <t>monitor.html</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -821,9 +824,15 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
